--- a/data/hotels_by_city/Houston/Houston_shard_471.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_471.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d244340-Reviews-Lone_Star_Motel-Clute_Texas.html</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,154 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r334812342-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>244340</t>
+  </si>
+  <si>
+    <t>334812342</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Please find a different place to stay!</t>
+  </si>
+  <si>
+    <t>We payed 70.34 for one night. We knew it was cheap but everywhere else was booked up. We were originally quoted 54.75 for the night. Then after ten minutes or so of trying to find a different place, it went up. The front desk girl was EXTREMELY rude. Tossed the key across the desk at us. (By the way, this is called the Lone star motel and isn't a motel 6)
+After entering our smoking room, we were overwhelmed with the smell of cat pee and smoke. The floor are wood laminate and were very clearly NOT cleaned. You can see the mud trail from the previous guest. The tv was terrible. Every channel was fuzzy. The wifi only exists in one spot near the door, and it still goes out. The bed was stained with yellow spots on the sheets and the bed was a tiny thin mattress that creaked when you just looked at it. 
+Now the bathroom... Toilet wasn't even bolted down! It slid around the floor. And leaked when you attempted to flush. The shower was filthy. Mud on the walls. Didn't get Luke warm either. Sat there for over ten minutes trying to get it hot and it never did. The walls had mold and dirt and I think some blood. Wasnt going to get too close to it. 
+The only good things were the handicap accessible pool, the color of the tv remote, and...We payed 70.34 for one night. We knew it was cheap but everywhere else was booked up. We were originally quoted 54.75 for the night. Then after ten minutes or so of trying to find a different place, it went up. The front desk girl was EXTREMELY rude. Tossed the key across the desk at us. (By the way, this is called the Lone star motel and isn't a motel 6)After entering our smoking room, we were overwhelmed with the smell of cat pee and smoke. The floor are wood laminate and were very clearly NOT cleaned. You can see the mud trail from the previous guest. The tv was terrible. Every channel was fuzzy. The wifi only exists in one spot near the door, and it still goes out. The bed was stained with yellow spots on the sheets and the bed was a tiny thin mattress that creaked when you just looked at it. Now the bathroom... Toilet wasn't even bolted down! It slid around the floor. And leaked when you attempted to flush. The shower was filthy. Mud on the walls. Didn't get Luke warm either. Sat there for over ten minutes trying to get it hot and it never did. The walls had mold and dirt and I think some blood. Wasnt going to get too close to it. The only good things were the handicap accessible pool, the color of the tv remote, and the key card that you just show to the door. (There was a 2 dollar deposit on the key and she said in the morning we couldn't have it back because it turns out it was a charge and not a deposit)So in conclusion, if there aren't any other places, the beach has free parking and you are better off sleeping in your car.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We payed 70.34 for one night. We knew it was cheap but everywhere else was booked up. We were originally quoted 54.75 for the night. Then after ten minutes or so of trying to find a different place, it went up. The front desk girl was EXTREMELY rude. Tossed the key across the desk at us. (By the way, this is called the Lone star motel and isn't a motel 6)
+After entering our smoking room, we were overwhelmed with the smell of cat pee and smoke. The floor are wood laminate and were very clearly NOT cleaned. You can see the mud trail from the previous guest. The tv was terrible. Every channel was fuzzy. The wifi only exists in one spot near the door, and it still goes out. The bed was stained with yellow spots on the sheets and the bed was a tiny thin mattress that creaked when you just looked at it. 
+Now the bathroom... Toilet wasn't even bolted down! It slid around the floor. And leaked when you attempted to flush. The shower was filthy. Mud on the walls. Didn't get Luke warm either. Sat there for over ten minutes trying to get it hot and it never did. The walls had mold and dirt and I think some blood. Wasnt going to get too close to it. 
+The only good things were the handicap accessible pool, the color of the tv remote, and...We payed 70.34 for one night. We knew it was cheap but everywhere else was booked up. We were originally quoted 54.75 for the night. Then after ten minutes or so of trying to find a different place, it went up. The front desk girl was EXTREMELY rude. Tossed the key across the desk at us. (By the way, this is called the Lone star motel and isn't a motel 6)After entering our smoking room, we were overwhelmed with the smell of cat pee and smoke. The floor are wood laminate and were very clearly NOT cleaned. You can see the mud trail from the previous guest. The tv was terrible. Every channel was fuzzy. The wifi only exists in one spot near the door, and it still goes out. The bed was stained with yellow spots on the sheets and the bed was a tiny thin mattress that creaked when you just looked at it. Now the bathroom... Toilet wasn't even bolted down! It slid around the floor. And leaked when you attempted to flush. The shower was filthy. Mud on the walls. Didn't get Luke warm either. Sat there for over ten minutes trying to get it hot and it never did. The walls had mold and dirt and I think some blood. Wasnt going to get too close to it. The only good things were the handicap accessible pool, the color of the tv remote, and the key card that you just show to the door. (There was a 2 dollar deposit on the key and she said in the morning we couldn't have it back because it turns out it was a charge and not a deposit)So in conclusion, if there aren't any other places, the beach has free parking and you are better off sleeping in your car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r331004036-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>331004036</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>it's not the least expensive....but it's by far the worst motel in the area</t>
+  </si>
+  <si>
+    <t>Beware !! 1st it's no longer a motel 6. the pictures on the website are obviously from years ago. the grounds are terrible. trash on the ground and piles of mechanical junk all throughout the outside. the stucco is comeing off in  mass chunks and the paint is peeling on every door and wall. our room had a hole in the wall, wires hanging where there should have been a smoke detector, open electrical outlets, loud and leaking plumbing,ciggerette burns in the bed spread and bugs  ROACHES and bedbugs.
+     the office staff left alot to be desired from a customer service standpoint.we are out of town contractors working in the area she was cautioning us to behave like the other methheads,hookers, and transients that call this place home. the police where at the property 3 times in a 6 day period. we made a reservation and where quoted a price only to have it be $95 more + tax. we where told that the rates had went up and the desk staff made an error when they quoted us. we had a limited amount of per diem $ available and the other motels in the area where totally booked by 6pm monday so we had little choice. if i where in the same position again i would not accept a room there EVEN IF THE PAID ME!!! 
+      come to find out there are actually several well known motel chains in...Beware !! 1st it's no longer a motel 6. the pictures on the website are obviously from years ago. the grounds are terrible. trash on the ground and piles of mechanical junk all throughout the outside. the stucco is comeing off in  mass chunks and the paint is peeling on every door and wall. our room had a hole in the wall, wires hanging where there should have been a smoke detector, open electrical outlets, loud and leaking plumbing,ciggerette burns in the bed spread and bugs  ROACHES and bedbugs.     the office staff left alot to be desired from a customer service standpoint.we are out of town contractors working in the area she was cautioning us to behave like the other methheads,hookers, and transients that call this place home. the police where at the property 3 times in a 6 day period. we made a reservation and where quoted a price only to have it be $95 more + tax. we where told that the rates had went up and the desk staff made an error when they quoted us. we had a limited amount of per diem $ available and the other motels in the area where totally booked by 6pm monday so we had little choice. if i where in the same position again i would not accept a room there EVEN IF THE PAID ME!!!       come to find out there are actually several well known motel chains in the area with the same or LOWER ratesMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Beware !! 1st it's no longer a motel 6. the pictures on the website are obviously from years ago. the grounds are terrible. trash on the ground and piles of mechanical junk all throughout the outside. the stucco is comeing off in  mass chunks and the paint is peeling on every door and wall. our room had a hole in the wall, wires hanging where there should have been a smoke detector, open electrical outlets, loud and leaking plumbing,ciggerette burns in the bed spread and bugs  ROACHES and bedbugs.
+     the office staff left alot to be desired from a customer service standpoint.we are out of town contractors working in the area she was cautioning us to behave like the other methheads,hookers, and transients that call this place home. the police where at the property 3 times in a 6 day period. we made a reservation and where quoted a price only to have it be $95 more + tax. we where told that the rates had went up and the desk staff made an error when they quoted us. we had a limited amount of per diem $ available and the other motels in the area where totally booked by 6pm monday so we had little choice. if i where in the same position again i would not accept a room there EVEN IF THE PAID ME!!! 
+      come to find out there are actually several well known motel chains in...Beware !! 1st it's no longer a motel 6. the pictures on the website are obviously from years ago. the grounds are terrible. trash on the ground and piles of mechanical junk all throughout the outside. the stucco is comeing off in  mass chunks and the paint is peeling on every door and wall. our room had a hole in the wall, wires hanging where there should have been a smoke detector, open electrical outlets, loud and leaking plumbing,ciggerette burns in the bed spread and bugs  ROACHES and bedbugs.     the office staff left alot to be desired from a customer service standpoint.we are out of town contractors working in the area she was cautioning us to behave like the other methheads,hookers, and transients that call this place home. the police where at the property 3 times in a 6 day period. we made a reservation and where quoted a price only to have it be $95 more + tax. we where told that the rates had went up and the desk staff made an error when they quoted us. we had a limited amount of per diem $ available and the other motels in the area where totally booked by 6pm monday so we had little choice. if i where in the same position again i would not accept a room there EVEN IF THE PAID ME!!!       come to find out there are actually several well known motel chains in the area with the same or LOWER ratesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r285629308-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>285629308</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Worst customer service, RUDE</t>
+  </si>
+  <si>
+    <t>any reviews by last name Patel giving good rating to this hotel are the same who own this crappy dirty hotel.We rented a room on 4th of July &amp; was told room would be ready @ 2.  At 3 p.m. and the room was dirty, smelly, was finally ready almost 4. We were pissed but No apolgies were offered instead the Indian son accused us of using drugs the last time we were there.  NEVER AGAIN WILL I RENT FROM THIS LOCATION!The employees confirmed my suspicions, the owner Patel is rude &amp; cheap.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r162466891-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>162466891</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE HORRIBLE HORRIBLE!!!!!</t>
+  </si>
+  <si>
+    <t>We booked a room here about a month ago, upon entering the room we noticed the sound of a running shower.  We attempted to stop the running water which only made it worse and it began to POUR out of the shower head and would not stop.  The sink in bathroom did not drain, the only light in the bedroom area of the room did not work, and after i saw roaches on  the wall behind the bed that was enough for me.  This place is OLDER THAN DIRT, has never been updated, is FILTHY and in need of major repairs.  We also had some men that appeared to be members of the owners family staring into our front window until my boyfriend chased them off.  We left after an hour.......AVOID THIS PLACE AT ALL COST.......DUMP DOESNT EVEN BEGAN TO DESCRIBE IT!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We booked a room here about a month ago, upon entering the room we noticed the sound of a running shower.  We attempted to stop the running water which only made it worse and it began to POUR out of the shower head and would not stop.  The sink in bathroom did not drain, the only light in the bedroom area of the room did not work, and after i saw roaches on  the wall behind the bed that was enough for me.  This place is OLDER THAN DIRT, has never been updated, is FILTHY and in need of major repairs.  We also had some men that appeared to be members of the owners family staring into our front window until my boyfriend chased them off.  We left after an hour.......AVOID THIS PLACE AT ALL COST.......DUMP DOESNT EVEN BEGAN TO DESCRIBE IT!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r140332146-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>140332146</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!</t>
+  </si>
+  <si>
+    <t>On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company...On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company and have them not pay the charge.  She said "Ok I give you refund, you just leave now.  I had already had my son get our belongings back in my vehicle.  We left and went to Days Inns about a block from Motel 6. When I told the front desk lady what had happend, she said she has had so many people come to their hotel and say the same thing about this lady.  She said that we were welcomed to have my family come see us and was very friendly.  I can also tell you that we paid $58.75 with tax for the room at Motel 6 and it was the worst motel I had ever seen.  It smelled, there was mildew on the ceiling and the beds were awful.  When we went to Days Inns we paid $67.80 with tax and the room was so nice!  The bed was the best bed I've slept in, including mine.  I want to buy one of those beds! LOL.  Do yourself a favor, stay away from Motel 6 in Clute, Texas, spend the $9.05 and you can even get a really nice breakfast the next morning.  I have made a written complaint to the Regional Manger and the Customers Relation with Motel 6 and as of today, no response from either.  I should have checked the reviews before we even checked in and I would have seen all the other bad reviews and known better but we were tired from driving and excited to see my family.  STAY AWAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company...On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company and have them not pay the charge.  She said "Ok I give you refund, you just leave now.  I had already had my son get our belongings back in my vehicle.  We left and went to Days Inns about a block from Motel 6. When I told the front desk lady what had happend, she said she has had so many people come to their hotel and say the same thing about this lady.  She said that we were welcomed to have my family come see us and was very friendly.  I can also tell you that we paid $58.75 with tax for the room at Motel 6 and it was the worst motel I had ever seen.  It smelled, there was mildew on the ceiling and the beds were awful.  When we went to Days Inns we paid $67.80 with tax and the room was so nice!  The bed was the best bed I've slept in, including mine.  I want to buy one of those beds! LOL.  Do yourself a favor, stay away from Motel 6 in Clute, Texas, spend the $9.05 and you can even get a really nice breakfast the next morning.  I have made a written complaint to the Regional Manger and the Customers Relation with Motel 6 and as of today, no response from either.  I should have checked the reviews before we even checked in and I would have seen all the other bad reviews and known better but we were tired from driving and excited to see my family.  STAY AWAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r128648290-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>128648290</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>The room was clean, but the BED WAS AWFUL.  In fact, I wouldn't call it a bed, more like a very, very unconfortable futon.  Just awful.  The end table are mount on the wall and one was falling off.  STAY AWAY FROM THE PLACE.  SPEND AN EXTRA $30 AND GET YOU A DECENT ROOM IN LAKE JACKSON, just a few miles away.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -532,11 +686,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +718,457 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_471.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_471.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,16 +147,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r598963313-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>244340</t>
+  </si>
+  <si>
+    <t>598963313</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Great place for the price!</t>
+  </si>
+  <si>
+    <t>This is a Motel 6 and sells to be remodeled since previous reviews. Mark, at the front desk was awesome at 2am. Pleasant and helpful. Room 153 was clean (cleaner than I've gotten at other places for $60/night). Love that there's no carpet. TV worked,  AC cooled the room fast.  Only toiletries provided in room are bars of soap, not sure if they have back ups if asked as I didn't ask.  Shower was tidy, drained well,  good pressure.  Parking/ surrounding area feels a little shady/unkempt but never felt unsafe! Close to surfside for a portion of the price of the places right on the beach ($185/night). Would def stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is a Motel 6 and sells to be remodeled since previous reviews. Mark, at the front desk was awesome at 2am. Pleasant and helpful. Room 153 was clean (cleaner than I've gotten at other places for $60/night). Love that there's no carpet. TV worked,  AC cooled the room fast.  Only toiletries provided in room are bars of soap, not sure if they have back ups if asked as I didn't ask.  Shower was tidy, drained well,  good pressure.  Parking/ surrounding area feels a little shady/unkempt but never felt unsafe! Close to surfside for a portion of the price of the places right on the beach ($185/night). Would def stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r559891457-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>559891457</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>A Total Dive BEWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filthy. No really. Filthy. There is so many things wrong with this motel I don't know where to start. I screwed up and booked through a web site that claimed my room was 45% off rate. The photo shown did not depict any room at this motel. See photos of my room. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r334812342-Lone_Star_Motel-Clute_Texas.html</t>
-  </si>
-  <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>244340</t>
   </si>
   <si>
     <t>334812342</t>
@@ -229,6 +271,48 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r211423617-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211423617</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>The ONLY good thing...it's cheap</t>
+  </si>
+  <si>
+    <t>We needed a place to stay the night we moved into town since our moving truck wouldn't be meeting us at the house until the next morning. Knowing we'd arrive sometime after midnight, I didn't want to pay much for just a few hours sleep. Well, it was cheap, but that's pretty much all I can say.Where you check in is a hotbox and you speak to someone through glass...really personal. The room was clean, but nothing to write home about. We ended up needing a room the next night as well so had to re-check in. This room one was on the back side of the property and it took three visits back up to the office to get a key that would actually open the door. Here's an idea, COME HELP YOUR GUESTS who are standing outside being eaten by mosquitos! Then there was mystery water on the floor in the bathroom. Thank goodness we just slept a few hours and checked out.I'm not against Motel 6 and have stayed in some decent ones, but this was not one of them. My advice...pay the few extra dollars and stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We needed a place to stay the night we moved into town since our moving truck wouldn't be meeting us at the house until the next morning. Knowing we'd arrive sometime after midnight, I didn't want to pay much for just a few hours sleep. Well, it was cheap, but that's pretty much all I can say.Where you check in is a hotbox and you speak to someone through glass...really personal. The room was clean, but nothing to write home about. We ended up needing a room the next night as well so had to re-check in. This room one was on the back side of the property and it took three visits back up to the office to get a key that would actually open the door. Here's an idea, COME HELP YOUR GUESTS who are standing outside being eaten by mosquitos! Then there was mystery water on the floor in the bathroom. Thank goodness we just slept a few hours and checked out.I'm not against Motel 6 and have stayed in some decent ones, but this was not one of them. My advice...pay the few extra dollars and stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r163685138-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>163685138</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Horrible, DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>My husband and I were down there visiting friends and family.  My husband checked into the hotel @ 2 am and paid $58.75.  We went to the room that was supposed to have 2 queen size beds.  The beds were just a thin mattress on a piece of wood.  The room had a funny smell and was filthy.  When he went to try and get a refund, they asked him why and almost refused to give him his money back until he threatened to call the cops on them.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r162466891-Lone_Star_Motel-Clute_Texas.html</t>
   </si>
   <si>
@@ -268,9 +352,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company...On September 12, 2012 my son and I checked in around 9:30.  Called my other son who lives in Freeport to let them know we made it.  He came by and picked up his brother to go get my daughter-in-law from work and they all returned to see me.  On their return the Manager, Lisha who lives below the room we were in started screaming at us, "How many people in the room?" I heard the screaming and came out to see what was going on.  I told her they were just here to say hello.  She screamed "No Guest!!! No Guest!!" I told her to please leave us alone and to go away.  She then said she was calling the police!  OMG.  My son and his wife never even came into the room.  They just left.  Immediately she was calling the room and started screaming again.  I told her we wanted to leave and that I wanted my money back.  They never told me when we checked in only 30 minutes earlier that we could not have "guest". She said it was to late.  I told her it was only 10:00pm.   I went to the front office and tried to talk to her again, but she continued to scream at me and said we would not get a refund.  We had only been there less then an hour.  I told her I would just call my credit card company and have them not pay the charge.  She said "Ok I give you refund, you just leave now.  I had already had my son get our belongings back in my vehicle.  We left and went to Days Inns about a block from Motel 6. When I told the front desk lady what had happend, she said she has had so many people come to their hotel and say the same thing about this lady.  She said that we were welcomed to have my family come see us and was very friendly.  I can also tell you that we paid $58.75 with tax for the room at Motel 6 and it was the worst motel I had ever seen.  It smelled, there was mildew on the ceiling and the beds were awful.  When we went to Days Inns we paid $67.80 with tax and the room was so nice!  The bed was the best bed I've slept in, including mine.  I want to buy one of those beds! LOL.  Do yourself a favor, stay away from Motel 6 in Clute, Texas, spend the $9.05 and you can even get a really nice breakfast the next morning.  I have made a written complaint to the Regional Manger and the Customers Relation with Motel 6 and as of today, no response from either.  I should have checked the reviews before we even checked in and I would have seen all the other bad reviews and known better but we were tired from driving and excited to see my family.  STAY AWAY.More</t>
   </si>
   <si>
@@ -292,7 +373,46 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r58697754-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>58697754</t>
+  </si>
+  <si>
+    <t>03/16/2010</t>
+  </si>
+  <si>
+    <t>beds were new but horrible. not comfortable at all....</t>
+  </si>
+  <si>
+    <t>i stayed in clute tx to see friends on my way to galveston tx. the motel 6 in clute is a recent remodel. looks great! but the beds were not comfortable at all. not internet avail. very nice staff. really sweet.  i hope that they are able to correct the bed issue.... like sleeping on a cheap matress on plyboard.... not good. price was reasonable for the room i have to admit.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d244340-r31529527-Lone_Star_Motel-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>31529527</t>
+  </si>
+  <si>
+    <t>06/03/2009</t>
+  </si>
+  <si>
+    <t>MOSQUITOS RUN WILD IN CLUTE, TX</t>
+  </si>
+  <si>
+    <t>We stayed there June 3 2009, nice price, but when we pulled around to the back to the room, there were like 6-9 construction workers sitting at a table by rooms, drinking beer and cooking on a grill.  I dont know how they managed as there were several million mosquitos flying all over the place.  apparently this is a severe problem in clute, and nothing new.  The hotel was clean but i killed at least 45 mosquitos in our room, and sprayed off on exposed parts of my body to be able to sleep.  Clute is no place to come for vacation, it has chemical plants and oil refinerarys nearby which stinks up the town as well.  My wife wanted to swim in the pool but since the construction workers were just outside the door , she felt intimidated to go out in  a bikini and could have worn shorts and a shirt, but whats the point on that.... maybe in january this place would not be infested with skeeters.  headed to galveston next so hopefully it is better there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>We stayed there June 3 2009, nice price, but when we pulled around to the back to the room, there were like 6-9 construction workers sitting at a table by rooms, drinking beer and cooking on a grill.  I dont know how they managed as there were several million mosquitos flying all over the place.  apparently this is a severe problem in clute, and nothing new.  The hotel was clean but i killed at least 45 mosquitos in our room, and sprayed off on exposed parts of my body to be able to sleep.  Clute is no place to come for vacation, it has chemical plants and oil refinerarys nearby which stinks up the town as well.  My wife wanted to swim in the pool but since the construction workers were just outside the door , she felt intimidated to go out in  a bikini and could have worn shorts and a shirt, but whats the point on that.... maybe in january this place would not be infested with skeeters.  headed to galveston next so hopefully it is better there.More</t>
   </si>
 </sst>
 </file>
@@ -827,7 +947,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -887,30 +1007,24 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +1040,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -935,25 +1049,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -967,7 +1081,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -983,7 +1097,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -992,38 +1106,34 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1034,7 +1144,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1050,7 +1160,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1059,49 +1169,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1117,7 +1217,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1126,49 +1226,441 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6552</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
